--- a/ELM/Pohor/KlopnyObvodJK/ELM_Protokol.xlsx
+++ b/ELM/Pohor/KlopnyObvodJK/ELM_Protokol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\School\ELM\Pohor\KlopnyObvodJK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{EFCCE929-8BDC-421B-96B8-7E8C2762ECA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1A8374-0B63-4D27-BCBB-08134FC54E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{8A85DCE3-DB18-45CC-ADD1-5D991AAD4BD6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{8A85DCE3-DB18-45CC-ADD1-5D991AAD4BD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -388,12 +388,12 @@
     <t>Ověření činnosti klopného obvodu typu JK Master-Slave</t>
   </si>
   <si>
+    <t>Zjistili jsme že na výstupu je frekvence 2 krát menší.</t>
+  </si>
+  <si>
     <t>Zapojili jsme obvod dle schématu.
 Zapojili jsme oscilátor.
-Získali jsme graf z osciloskopu pomocí flask disku.</t>
-  </si>
-  <si>
-    <t>Zjistili jsme že na výstupu je frekvence 2 krát menší.</t>
+Získali jsme graf z osciloskopu pomocí flash disku.</t>
   </si>
 </sst>
 </file>
@@ -621,6 +621,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -630,6 +669,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -639,63 +693,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -708,6 +708,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -719,9 +722,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1127,7 +1127,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C3:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="52" zoomScaleNormal="64" workbookViewId="0">
       <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
@@ -1166,122 +1166,122 @@
     </row>
     <row r="7" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="28"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="18"/>
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="4"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="31"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="21"/>
       <c r="S8" s="5"/>
     </row>
     <row r="9" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="28"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="18"/>
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="4"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="31"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="21"/>
       <c r="S10" s="5"/>
     </row>
     <row r="11" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="35"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="25"/>
       <c r="S11" s="5"/>
     </row>
     <row r="12" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="4"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="38"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="28"/>
       <c r="S12" s="5"/>
     </row>
     <row r="13" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1316,20 +1316,20 @@
         <f>_xlfn.CONCAT(_xlfn.VALUETOTEXT(1,0), ".")</f>
         <v>1.</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
     </row>
@@ -1340,20 +1340,20 @@
         <f>_xlfn.CONCAT(_xlfn.VALUETOTEXT(2,0), ".")</f>
         <v>2.</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
     </row>
@@ -1364,18 +1364,18 @@
         <f>_xlfn.CONCAT(_xlfn.VALUETOTEXT(3,0), ".")</f>
         <v>3.</v>
       </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
     </row>
@@ -1386,18 +1386,18 @@
         <f>_xlfn.CONCAT(_xlfn.VALUETOTEXT(4,0), ".")</f>
         <v>4.</v>
       </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
     </row>
@@ -1408,18 +1408,18 @@
         <f>_xlfn.CONCAT(_xlfn.VALUETOTEXT(5,0), ".")</f>
         <v>5.</v>
       </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
     </row>
@@ -1437,134 +1437,134 @@
     </row>
     <row r="22" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="16" t="s">
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="16" t="s">
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="18"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="31"/>
       <c r="S22" s="5"/>
     </row>
     <row r="23" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="4"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="24"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="34"/>
       <c r="S23" s="5"/>
     </row>
     <row r="24" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="16" t="s">
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="16" t="s">
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="18"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="31"/>
       <c r="S24" s="5"/>
     </row>
     <row r="25" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="4"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="21"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="39"/>
       <c r="S25" s="5"/>
     </row>
     <row r="26" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="16" t="s">
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="25" t="s">
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="18"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="31"/>
       <c r="S26" s="5"/>
     </row>
     <row r="27" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="4"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="24"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="34"/>
       <c r="S27" s="5"/>
     </row>
     <row r="28" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1628,6 +1628,12 @@
     <row r="32" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D24:H25"/>
+    <mergeCell ref="I24:M25"/>
+    <mergeCell ref="N24:R25"/>
+    <mergeCell ref="D26:H27"/>
+    <mergeCell ref="I26:M27"/>
+    <mergeCell ref="N26:R27"/>
     <mergeCell ref="D7:R8"/>
     <mergeCell ref="D9:R10"/>
     <mergeCell ref="D11:R12"/>
@@ -1639,12 +1645,6 @@
     <mergeCell ref="F17:Q17"/>
     <mergeCell ref="F18:Q18"/>
     <mergeCell ref="F19:Q19"/>
-    <mergeCell ref="D24:H25"/>
-    <mergeCell ref="I24:M25"/>
-    <mergeCell ref="N24:R25"/>
-    <mergeCell ref="D26:H27"/>
-    <mergeCell ref="I26:M27"/>
-    <mergeCell ref="N26:R27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="C3:S32"/>
   <sheetViews>
-    <sheetView zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="40" zoomScaleNormal="64" workbookViewId="0">
       <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
@@ -1727,99 +1727,99 @@
     </row>
     <row r="7" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
       <c r="S8" s="5"/>
     </row>
     <row r="9" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
       <c r="S10" s="5"/>
     </row>
     <row r="11" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
       <c r="S11" s="5"/>
     </row>
     <row r="12" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1866,12 +1866,12 @@
     </row>
     <row r="15" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="4"/>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="46" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="41"/>
       <c r="F15" s="42"/>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="46" t="s">
         <v>11</v>
       </c>
       <c r="H15" s="41"/>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="K15" s="41"/>
       <c r="L15" s="41"/>
-      <c r="M15" s="45" t="s">
+      <c r="M15" s="46" t="s">
         <v>13</v>
       </c>
       <c r="N15" s="41"/>
@@ -1895,92 +1895,92 @@
     </row>
     <row r="16" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="46" t="s">
+      <c r="E16" s="48"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="46" t="s">
+      <c r="H16" s="48"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="47"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="49"/>
       <c r="S16" s="5"/>
     </row>
     <row r="17" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="47"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="46" t="s">
+      <c r="E17" s="48"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="47"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="46" t="s">
+      <c r="H17" s="48"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="47"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="49"/>
       <c r="S17" s="5"/>
     </row>
     <row r="18" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="4"/>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="47"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="49"/>
       <c r="S18" s="5"/>
     </row>
     <row r="19" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="4"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="48"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="49"/>
       <c r="S19" s="5"/>
     </row>
     <row r="20" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -2183,6 +2183,20 @@
     <row r="32" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:R18"/>
     <mergeCell ref="P15:R15"/>
     <mergeCell ref="D21:R21"/>
     <mergeCell ref="D23:R29"/>
@@ -2199,20 +2213,6 @@
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="P16:R16"/>
     <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2224,8 +2224,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="C3:S32"/>
   <sheetViews>
-    <sheetView zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:R16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2295,8 +2295,8 @@
     </row>
     <row r="7" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
-      <c r="D7" s="49" t="s">
-        <v>35</v>
+      <c r="D7" s="45" t="s">
+        <v>36</v>
       </c>
       <c r="E7" s="50"/>
       <c r="F7" s="50"/>
@@ -2740,7 +2740,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="C3:S32"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="D25" sqref="D25:R29"/>
     </sheetView>
   </sheetViews>
@@ -2912,175 +2912,175 @@
     </row>
     <row r="13" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
-      <c r="D13" s="39" t="e" vm="1">
+      <c r="D13" s="35" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
       <c r="S13" s="5"/>
     </row>
     <row r="14" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
       <c r="S14" s="5"/>
     </row>
     <row r="15" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
       <c r="S15" s="5"/>
     </row>
     <row r="16" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
       <c r="S16" s="5"/>
     </row>
     <row r="17" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
       <c r="S17" s="5"/>
     </row>
     <row r="18" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
       <c r="S18" s="5"/>
     </row>
     <row r="19" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
       <c r="S19" s="5"/>
     </row>
     <row r="20" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
       <c r="S20" s="5"/>
     </row>
     <row r="21" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
       <c r="S21" s="5"/>
     </row>
     <row r="22" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3130,7 +3130,7 @@
     <row r="25" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="4"/>
       <c r="D25" s="50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" s="50"/>
       <c r="F25" s="50"/>
